--- a/0OCTAVO0/Data mining/minning/bayes/dataNew.xlsx
+++ b/0OCTAVO0/Data mining/minning/bayes/dataNew.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\chris\Documents\0ESCUELA0\octavo\0OCTAVO0\Data mining\minning\bayes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documentos\octavo\0OCTAVO0\Data mining\minning\bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61A3CEB-9C33-44ED-99C8-50B302FEBC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E90607-2495-4702-BB07-FD2CA4FBEF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3390" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-99" yWindow="-99" windowWidth="21303" windowHeight="11344" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
@@ -399,17 +399,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="14.3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -426,7 +426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -460,7 +460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -494,7 +494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -511,7 +511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -579,7 +579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -596,7 +596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -613,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -630,7 +630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -647,7 +647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -673,16 +673,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001122D6-695A-4AB2-801D-A36E9B925C6A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -696,7 +696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -710,7 +710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -724,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -738,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
